--- a/学生信息样例.xlsx
+++ b/学生信息样例.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZeroHzzzz\Desktop\wintersoft\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09734EDF-4B46-4EFB-A5CF-3358AD05D637}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D40C841F-6C4D-42D1-A4E1-3BED7EC4CD09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2350" yWindow="4110" windowWidth="19200" windowHeight="11170" xr2:uid="{4142B277-AD5A-456A-829C-87088B50E86A}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="19200" windowHeight="11170" xr2:uid="{4142B277-AD5A-456A-829C-87088B50E86A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -125,9 +125,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -446,7 +449,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -455,36 +458,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>202301</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="1">
         <v>2301</v>
       </c>
     </row>
